--- a/output/fit_clients/fit_round_390.xlsx
+++ b/output/fit_clients/fit_round_390.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2264336217.800196</v>
+        <v>1733032217.229196</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1087604428662677</v>
+        <v>0.1148694269682166</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02814703986976104</v>
+        <v>0.04036050201114522</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1132168140.081854</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2109017975.719982</v>
+        <v>1916917957.201721</v>
       </c>
       <c r="F3" t="n">
-        <v>0.112097942211231</v>
+        <v>0.1708764688609497</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04826336599900467</v>
+        <v>0.03217632503938285</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1054509044.816337</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4533957793.270897</v>
+        <v>3921510763.462601</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1365008955858954</v>
+        <v>0.1305981736469088</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02350154279866861</v>
+        <v>0.03422153882543006</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>140</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2266978948.646527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3715108458.036642</v>
+        <v>2563608749.044992</v>
       </c>
       <c r="F5" t="n">
-        <v>0.100213412009011</v>
+        <v>0.09987103252012262</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03168363373206514</v>
+        <v>0.03173929547430251</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>145</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1857554251.578983</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2421047242.368694</v>
+        <v>2866230945.025254</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1357719894136964</v>
+        <v>0.09795626796549203</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05038149931153748</v>
+        <v>0.0355395250099733</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>73</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1210523605.225269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3107381148.25563</v>
+        <v>2459771989.926732</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07869114599119592</v>
+        <v>0.08868632560432252</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0427737925064243</v>
+        <v>0.0396317305303251</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>121</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1553690528.668936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3194335619.760711</v>
+        <v>3390479474.353093</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2038026077990211</v>
+        <v>0.195295616604487</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02963741468393198</v>
+        <v>0.02804887018316705</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>124</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1597167887.276204</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2133453673.243356</v>
+        <v>2206316788.523336</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1535143197605748</v>
+        <v>0.1529264988100306</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03330321521436676</v>
+        <v>0.02755731237694511</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1066726844.734635</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4335719450.594765</v>
+        <v>5188092579.126279</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1918840888537166</v>
+        <v>0.1310144780989588</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04342453448061977</v>
+        <v>0.04912372357904088</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>164</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2167859773.177916</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2705232593.001154</v>
+        <v>2986279351.044934</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1283719122883065</v>
+        <v>0.1731708799283384</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04402909143521695</v>
+        <v>0.03249150482900264</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>161</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1352616218.888161</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3183832133.880491</v>
+        <v>2155894563.153502</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1217219333109098</v>
+        <v>0.1258734126480613</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0343966367042878</v>
+        <v>0.03940355047186225</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>133</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1591916101.817021</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4746902891.994788</v>
+        <v>4285979009.8692</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07626234216694533</v>
+        <v>0.08945571850237664</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01948999309812499</v>
+        <v>0.02676311185228051</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>131</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2373451463.002417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3438104836.609957</v>
+        <v>3608553772.252371</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1173162107722562</v>
+        <v>0.1270331363825798</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03338866326452847</v>
+        <v>0.0299059112763464</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>125</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1719052421.031703</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1424692519.984152</v>
+        <v>1767223773.541678</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1036290519162268</v>
+        <v>0.1063300363899282</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04911582931885299</v>
+        <v>0.04577957249658447</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>712346328.4284253</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2540059903.307448</v>
+        <v>2232592536.453665</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1025612422985422</v>
+        <v>0.07056238014413907</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03743399654266662</v>
+        <v>0.04853510690981359</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>80</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1270029978.907471</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3213318780.404886</v>
+        <v>4424066738.574073</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1326100666275113</v>
+        <v>0.1134131076269039</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04432367355796569</v>
+        <v>0.04916621520474975</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>114</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1606659463.690475</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4011007259.139048</v>
+        <v>3245159173.805778</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1247343026546684</v>
+        <v>0.16413000121753</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02275642220503269</v>
+        <v>0.03176908003192795</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>127</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2005503586.614572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1015029571.6889</v>
+        <v>1012734430.440073</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1629177455074456</v>
+        <v>0.1768643062936929</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01796288824283542</v>
+        <v>0.02092223264465982</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>507514818.7442206</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2333513892.770714</v>
+        <v>2471716632.884277</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1571679428771972</v>
+        <v>0.1306341753700004</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03130362311122276</v>
+        <v>0.02071257716103183</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>50</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1166756937.204607</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2589515317.384152</v>
+        <v>2553066787.871234</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09198148076481032</v>
+        <v>0.07526570441284347</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03454961960033696</v>
+        <v>0.03567069811330415</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>32</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1294757638.28049</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3385646395.629277</v>
+        <v>2484962284.295105</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1091652435744875</v>
+        <v>0.130982437419046</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04117058488884853</v>
+        <v>0.05520425103342467</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>109</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1692823236.265761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1334295115.684907</v>
+        <v>1332792837.602358</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1138538762449694</v>
+        <v>0.1456669564583203</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04271682501708278</v>
+        <v>0.03620275097522971</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>667147571.720168</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2738203404.60803</v>
+        <v>4087861601.628548</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1194827332506914</v>
+        <v>0.1284683690203319</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03045725809111688</v>
+        <v>0.02707146619243718</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>114</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1369101755.158609</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1249418427.934271</v>
+        <v>1163037887.118544</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08785817274702182</v>
+        <v>0.08515728486797997</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03050403821165273</v>
+        <v>0.02712031602410235</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>624709220.5720711</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1234978419.985925</v>
+        <v>1338498601.178765</v>
       </c>
       <c r="F26" t="n">
-        <v>0.114798212208148</v>
+        <v>0.07523387876671685</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03594646266764126</v>
+        <v>0.02732187803567277</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>617489239.650085</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3170694645.498405</v>
+        <v>3667184934.717848</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1149430845572533</v>
+        <v>0.1437755299945337</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02431238732898456</v>
+        <v>0.02652335573124874</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>96</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1585347374.10778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3021882485.948181</v>
+        <v>2964043773.726576</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1119737362211671</v>
+        <v>0.1116948910786864</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03724928446262511</v>
+        <v>0.04992013152572069</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>125</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1510941256.094746</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3617399745.504222</v>
+        <v>5257162950.084044</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09358309788775669</v>
+        <v>0.09137227743222931</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03633265479664364</v>
+        <v>0.0361194909314947</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>172</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1808699916.125541</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2080269803.891279</v>
+        <v>1647208610.357177</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1077278157868647</v>
+        <v>0.08876290055206845</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03485523818405128</v>
+        <v>0.03217100560269762</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1040134948.56062</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>938171288.1531949</v>
+        <v>1269220668.501247</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0795022474553901</v>
+        <v>0.06760700723765388</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03885830339085187</v>
+        <v>0.05184931888292588</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>469085657.1714666</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1677218325.048352</v>
+        <v>1160860657.323773</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07527365183283509</v>
+        <v>0.1191523129026775</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03112324105410386</v>
+        <v>0.02946768627631377</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>838609267.6048654</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2310616005.690453</v>
+        <v>2927704193.925193</v>
       </c>
       <c r="F33" t="n">
-        <v>0.144229772373443</v>
+        <v>0.1955602974657464</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04614629866694517</v>
+        <v>0.04452350242621926</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>117</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1155308057.18042</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1193923425.935807</v>
+        <v>1525080046.797693</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1028432658159479</v>
+        <v>0.07656644461246091</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02629041991960341</v>
+        <v>0.02502842861284591</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>596961719.0139542</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>845913049.2395518</v>
+        <v>1286619066.678349</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09665181067969765</v>
+        <v>0.116071868327568</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04068462405566008</v>
+        <v>0.03567882231119184</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>422956576.9976926</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2986860700.444929</v>
+        <v>2117816154.99797</v>
       </c>
       <c r="F36" t="n">
-        <v>0.176515401409628</v>
+        <v>0.1253806225624748</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02037200197359626</v>
+        <v>0.02399104600723455</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>100</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1493430333.180566</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2902368407.612395</v>
+        <v>2760474283.379799</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09712447072933905</v>
+        <v>0.07665830358375746</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02564936702199623</v>
+        <v>0.031897975071671</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>102</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1451184355.217938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2068768919.899442</v>
+        <v>2091809502.632183</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07373705684077476</v>
+        <v>0.1039970093604388</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02981667920938881</v>
+        <v>0.02546857056548225</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1034384428.876359</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2205664597.943901</v>
+        <v>1979555750.036839</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1692672600250921</v>
+        <v>0.14778740253371</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02866200820362654</v>
+        <v>0.02505930264175579</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1102832262.333718</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1164322294.086293</v>
+        <v>1501039155.441574</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1202317760528783</v>
+        <v>0.1179132787980776</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03952229951767229</v>
+        <v>0.04025377780890973</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>582161197.2675797</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2841646213.761196</v>
+        <v>2041765288.609769</v>
       </c>
       <c r="F41" t="n">
-        <v>0.161289475132084</v>
+        <v>0.1377191913597224</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0353752568830879</v>
+        <v>0.04384688469389692</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>99</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1420823098.728818</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3757559453.518044</v>
+        <v>3395927580.006906</v>
       </c>
       <c r="F42" t="n">
-        <v>0.111799864003421</v>
+        <v>0.08587648282008223</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03887684993772228</v>
+        <v>0.045516425986088</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>126</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1878779739.361178</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3068251345.297791</v>
+        <v>2677449651.228381</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1264873510423598</v>
+        <v>0.1921116693596078</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02285390096395566</v>
+        <v>0.02400584986025531</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>135</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1534125664.165308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2013398457.577692</v>
+        <v>2341562715.86336</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06808971387728195</v>
+        <v>0.06602821295788315</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03666463123306287</v>
+        <v>0.02707121744342741</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1006699337.806313</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2368301838.654102</v>
+        <v>2496060343.251494</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1828337679691811</v>
+        <v>0.130503445740634</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04347416494965469</v>
+        <v>0.05628530443378976</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1184150947.314347</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5187209037.452201</v>
+        <v>5378942653.569717</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1113364453764423</v>
+        <v>0.1645475665633523</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05541515066287569</v>
+        <v>0.05481769808079538</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>138</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2593604556.241054</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4140163355.938643</v>
+        <v>3239319275.635587</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1735807084410409</v>
+        <v>0.1913704658903647</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04320886681921466</v>
+        <v>0.03773131396817331</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>104</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2070081685.06716</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3517751661.694644</v>
+        <v>3825075521.301759</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06734830591840489</v>
+        <v>0.07821267806840053</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02469124787827793</v>
+        <v>0.03625263021016252</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>126</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1758875893.288386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1239853363.313437</v>
+        <v>1370219562.760461</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1302889972218804</v>
+        <v>0.1784807332182297</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04311667230694637</v>
+        <v>0.03715639433133205</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>619926754.1240253</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3246782789.141493</v>
+        <v>3275339226.044074</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1605814572587868</v>
+        <v>0.1633639165887727</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04044814234114603</v>
+        <v>0.04225557145595386</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>134</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1623391436.878568</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1005241414.429075</v>
+        <v>1050552097.985821</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1803776045038065</v>
+        <v>0.1382594149991018</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04971596970940606</v>
+        <v>0.03834687446792337</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>502620790.3464226</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5284068870.192846</v>
+        <v>5193428099.459259</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1173503906655375</v>
+        <v>0.101391361434086</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04991508830743687</v>
+        <v>0.04164959315855607</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>160</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2642034416.014458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2945803939.827482</v>
+        <v>3164535896.378248</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1565771141643404</v>
+        <v>0.163474505577546</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03115080576210205</v>
+        <v>0.03440924420452372</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>112</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1472902006.122927</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3500084155.582416</v>
+        <v>4779006773.423353</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1272948277926984</v>
+        <v>0.1345572675421157</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0420584745392524</v>
+        <v>0.03314469205606526</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>127</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1750042102.599939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4490451224.863091</v>
+        <v>3169531550.519499</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1922891243832236</v>
+        <v>0.2089303762876673</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03038792788157732</v>
+        <v>0.02045085774548487</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2245225608.978173</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1664960038.87006</v>
+        <v>1806399368.302186</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1108732695810926</v>
+        <v>0.1583608890947536</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03561262107424678</v>
+        <v>0.03891388450283888</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>832480037.23693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3892075830.480422</v>
+        <v>4389175476.159772</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1269120622063742</v>
+        <v>0.1566641945520456</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02491187215647539</v>
+        <v>0.02094033490775512</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>123</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1946037994.559778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1395526184.888926</v>
+        <v>1778157905.567799</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1827715161792077</v>
+        <v>0.1591514694953123</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03427546115118688</v>
+        <v>0.03546892803119695</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>697763133.1196872</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3837594085.257287</v>
+        <v>4784676710.70355</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1243202661134246</v>
+        <v>0.09162667128875518</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03631183834494603</v>
+        <v>0.03508884141550175</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>109</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1918797026.408142</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3603041316.637323</v>
+        <v>2581003519.175154</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1533440064666724</v>
+        <v>0.1826856412323741</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03021714615884054</v>
+        <v>0.03026054119931045</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>122</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1801520791.936386</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2870064561.054012</v>
+        <v>2228418040.430122</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1497808187810994</v>
+        <v>0.1310689329608585</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02302568213672852</v>
+        <v>0.02783522471611902</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>134</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1435032273.260803</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1402310519.378919</v>
+        <v>2032269272.785708</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1372153418205965</v>
+        <v>0.1920269292954082</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04520540222431143</v>
+        <v>0.04601253036764719</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>701155228.1239371</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3489874827.32477</v>
+        <v>4145731716.243157</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08112070225052026</v>
+        <v>0.09854744851415738</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04062950648505415</v>
+        <v>0.04502425601349184</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>111</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1744937498.801428</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5214129951.98189</v>
+        <v>5124949503.419144</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1544414919277849</v>
+        <v>0.1922466240034627</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0260205992776276</v>
+        <v>0.02831278664183829</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>121</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2607065097.254047</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4577808826.317389</v>
+        <v>4823386537.043639</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1387968603111468</v>
+        <v>0.1675702217855215</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02104190706734488</v>
+        <v>0.02706689421178159</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>139</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2288904397.283782</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5387301995.519142</v>
+        <v>5190366650.11221</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1494039916001743</v>
+        <v>0.1552839737390715</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04521242428607344</v>
+        <v>0.04698402385720868</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>115</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2693651045.719806</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3142724328.797983</v>
+        <v>2156218120.418896</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08320328158804594</v>
+        <v>0.07066972169975033</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04460814696444779</v>
+        <v>0.03604456085076545</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>125</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1571362170.613408</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6066796883.339485</v>
+        <v>4755554447.720136</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1603733832319671</v>
+        <v>0.1174670414470866</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04653763107852621</v>
+        <v>0.03439959953736438</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>126</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3033398562.712089</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2477474466.132424</v>
+        <v>2410396771.245184</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1119714778658383</v>
+        <v>0.1682031942424561</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04004162900344894</v>
+        <v>0.04106947128784765</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1238737299.750714</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3289763908.221039</v>
+        <v>3284795151.466006</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06341896337387316</v>
+        <v>0.08517640838228384</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03666885479936766</v>
+        <v>0.04358082606896754</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>111</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1644881949.949883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5555191335.442429</v>
+        <v>3605390806.11889</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1522820593165597</v>
+        <v>0.1402252455052126</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02680425460124531</v>
+        <v>0.02945984746446163</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>142</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2777595814.920484</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1976396546.772201</v>
+        <v>2100438047.014771</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0990707115439167</v>
+        <v>0.08241967885044589</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05189345768501728</v>
+        <v>0.04347438517258562</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>988198223.5228201</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2731657603.370576</v>
+        <v>3447138399.69674</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09050730633454736</v>
+        <v>0.1042113423603342</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04286658955564794</v>
+        <v>0.03477044255087663</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>148</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1365828822.237528</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2433350226.896388</v>
+        <v>3316975289.448068</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1723371092452185</v>
+        <v>0.1599821469218606</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03092298697989139</v>
+        <v>0.02498892178063813</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>133</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1216675227.846412</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1620709685.758919</v>
+        <v>1771175831.27864</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1396340799728201</v>
+        <v>0.1660434959899765</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03464907612795743</v>
+        <v>0.03384352575680647</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>810354842.5829206</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5190122444.078323</v>
+        <v>3260081616.178941</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07725745248387135</v>
+        <v>0.08475034492012563</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02912459994394108</v>
+        <v>0.02636504143147899</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2595061256.670795</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1915635982.846724</v>
+        <v>2232359977.639831</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1242750308655595</v>
+        <v>0.1315832448939617</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0258068376118989</v>
+        <v>0.021666567256504</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>957818040.4984009</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3611905015.319445</v>
+        <v>4730122080.960751</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1216556243890851</v>
+        <v>0.1144498102320993</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03699867481295852</v>
+        <v>0.04965738894452407</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>135</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1805952501.18843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1354750610.309276</v>
+        <v>1286651251.797374</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1172558402116848</v>
+        <v>0.1107475203061622</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03147399580404971</v>
+        <v>0.03134843445250496</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>677375313.964871</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5242228743.296073</v>
+        <v>5106002865.243987</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07778266353538714</v>
+        <v>0.09564276566627714</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02914032489879876</v>
+        <v>0.02974150585280375</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2621114432.907823</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4257343805.979327</v>
+        <v>3875357902.612891</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09757296381199977</v>
+        <v>0.1204512747778944</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03034514131184463</v>
+        <v>0.03077032795363437</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2128671875.774325</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5686631934.026952</v>
+        <v>3653403188.991606</v>
       </c>
       <c r="F82" t="n">
-        <v>0.131518835529907</v>
+        <v>0.178537795914353</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02370779286243072</v>
+        <v>0.0235284110483162</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>136</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2843315912.665264</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2127855725.279648</v>
+        <v>2015659115.505316</v>
       </c>
       <c r="F83" t="n">
-        <v>0.140022722406542</v>
+        <v>0.125913267018389</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03281037721539586</v>
+        <v>0.03347012892865626</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1063927863.845174</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2202147493.840297</v>
+        <v>1649907549.680529</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1065838435997719</v>
+        <v>0.09873812699831722</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04246256966365811</v>
+        <v>0.04843017337006535</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1101073722.384159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2381782777.594384</v>
+        <v>2405888985.758494</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1637700718307923</v>
+        <v>0.120714701734872</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03943772383722249</v>
+        <v>0.03709174679206595</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>147</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1190891380.711197</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1932374283.94943</v>
+        <v>2430410172.902856</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1077981813151129</v>
+        <v>0.1478259989699623</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01665278788744277</v>
+        <v>0.02266334705417954</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>51</v>
-      </c>
-      <c r="J86" t="n">
-        <v>966187160.2188109</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1386481271.536507</v>
+        <v>1450416137.917396</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1267544579945764</v>
+        <v>0.1867450528693298</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04226431640820453</v>
+        <v>0.04433505016882092</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>693240739.1521366</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2520303924.145885</v>
+        <v>2423500909.781075</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1245230162726748</v>
+        <v>0.1448685098707011</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03747744930055275</v>
+        <v>0.02811889659127308</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>153</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1260151945.125264</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3266875296.5174</v>
+        <v>3202236166.405048</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1448685048636814</v>
+        <v>0.1046197001517545</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03093341650032357</v>
+        <v>0.03577175652599173</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>131</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1633437666.808012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1471831236.378338</v>
+        <v>1972626927.387023</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1100652941118665</v>
+        <v>0.1110174464421377</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05618885125853604</v>
+        <v>0.03703216987864549</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>735915591.749313</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1710232452.468421</v>
+        <v>2073385381.85388</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1277392104888593</v>
+        <v>0.1673687425356261</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03996941162737966</v>
+        <v>0.04968067542200795</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>855116237.1649823</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2356330966.193388</v>
+        <v>1909139638.846728</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08950183862406402</v>
+        <v>0.09080735831510778</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04249478904695423</v>
+        <v>0.03926784091706686</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>110</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1178165456.250612</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3798559031.033243</v>
+        <v>4995070129.343931</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1122571545744484</v>
+        <v>0.09062755831560761</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03383707065630301</v>
+        <v>0.04257370736198923</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>119</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1899279529.183601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2039072219.61477</v>
+        <v>2205109583.77877</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1636880576980352</v>
+        <v>0.1681081767023293</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0293876292635579</v>
+        <v>0.02945084223417266</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1019536113.244397</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2144479367.369882</v>
+        <v>2985642907.257489</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09317011109686942</v>
+        <v>0.132315277478966</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03863262512405506</v>
+        <v>0.03898939212138164</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>95</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1072239745.635207</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1969099236.586482</v>
+        <v>2377716446.443486</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1201475661328856</v>
+        <v>0.131161521247806</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04293400863183934</v>
+        <v>0.03145488752700111</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>984549608.5858043</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4742250632.871489</v>
+        <v>3397739035.306962</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1212686139561295</v>
+        <v>0.14279285516002</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0186769342349535</v>
+        <v>0.02151609523007769</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>125</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2371125432.517831</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3734657725.730703</v>
+        <v>3557783536.519958</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09044422541295574</v>
+        <v>0.1195595983215674</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03190546175370702</v>
+        <v>0.02751990613104248</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>105</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1867328897.384501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2112249535.903445</v>
+        <v>2648060856.556976</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1110610562234665</v>
+        <v>0.1211132315847939</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03363732194146286</v>
+        <v>0.03488224659206011</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>124</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1056124689.646982</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4745353345.483757</v>
+        <v>3655301129.31811</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1516669783510002</v>
+        <v>0.1800005988419508</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0248008988544933</v>
+        <v>0.02422406338404709</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>119</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2372676802.940599</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2640563294.558185</v>
+        <v>3098730665.784553</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1767567048056032</v>
+        <v>0.1679134568352893</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05174915528765691</v>
+        <v>0.04257255956681109</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>159</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1320281688.834649</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_390.xlsx
+++ b/output/fit_clients/fit_round_390.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1733032217.229196</v>
+        <v>1923067956.180754</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1148694269682166</v>
+        <v>0.1115287816553604</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04036050201114522</v>
+        <v>0.03651608524347029</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1916917957.201721</v>
+        <v>2236419453.286679</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1708764688609497</v>
+        <v>0.1276948729058652</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03217632503938285</v>
+        <v>0.04117467440968811</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3921510763.462601</v>
+        <v>3325149944.408879</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1305981736469088</v>
+        <v>0.1621115937517932</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03422153882543006</v>
+        <v>0.03724230332531198</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2563608749.044992</v>
+        <v>3624451670.486137</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09987103252012262</v>
+        <v>0.105508593369988</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03173929547430251</v>
+        <v>0.03555699336208423</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2866230945.025254</v>
+        <v>1855082282.698723</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09795626796549203</v>
+        <v>0.1395440997389488</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0355395250099733</v>
+        <v>0.04968876780068346</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2459771989.926732</v>
+        <v>2128799823.474329</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08868632560432252</v>
+        <v>0.07991881993691941</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0396317305303251</v>
+        <v>0.03870567676107391</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3390479474.353093</v>
+        <v>3008529706.097003</v>
       </c>
       <c r="F8" t="n">
-        <v>0.195295616604487</v>
+        <v>0.1615303171097322</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02804887018316705</v>
+        <v>0.02499998140220234</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2206316788.523336</v>
+        <v>1854310624.827772</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1529264988100306</v>
+        <v>0.1359621377437879</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02755731237694511</v>
+        <v>0.03184733565774295</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5188092579.126279</v>
+        <v>5816801579.90515</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1310144780989588</v>
+        <v>0.1626091602669252</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04912372357904088</v>
+        <v>0.03317776370233896</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2986279351.044934</v>
+        <v>3607074480.093677</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1731708799283384</v>
+        <v>0.1216660960185025</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03249150482900264</v>
+        <v>0.03597067586905741</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2155894563.153502</v>
+        <v>2170861689.421717</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1258734126480613</v>
+        <v>0.1818763784378787</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03940355047186225</v>
+        <v>0.04554848458018588</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4285979009.8692</v>
+        <v>4004149311.071011</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08945571850237664</v>
+        <v>0.09451941295147663</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02676311185228051</v>
+        <v>0.0285047789468272</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3608553772.252371</v>
+        <v>2789612172.356331</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1270331363825798</v>
+        <v>0.1337590588418076</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0299059112763464</v>
+        <v>0.03138281980937554</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1767223773.541678</v>
+        <v>1158750824.86221</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1063300363899282</v>
+        <v>0.1049507461867953</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04577957249658447</v>
+        <v>0.03272922206222134</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2232592536.453665</v>
+        <v>1894806923.937859</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07056238014413907</v>
+        <v>0.07098206434005508</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04853510690981359</v>
+        <v>0.03494873854573299</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4424066738.574073</v>
+        <v>4210970718.782913</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1134131076269039</v>
+        <v>0.1172789768145482</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04916621520474975</v>
+        <v>0.03520955283915558</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3245159173.805778</v>
+        <v>3706125580.135493</v>
       </c>
       <c r="F18" t="n">
-        <v>0.16413000121753</v>
+        <v>0.1758677544777629</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03176908003192795</v>
+        <v>0.02210897660861387</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1012734430.440073</v>
+        <v>1112909474.843531</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1768643062936929</v>
+        <v>0.1512986493657597</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02092223264465982</v>
+        <v>0.01780927255210054</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2471716632.884277</v>
+        <v>1818129118.609396</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1306341753700004</v>
+        <v>0.1130326707478578</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02071257716103183</v>
+        <v>0.02469177183669728</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2553066787.871234</v>
+        <v>2311238321.504369</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07526570441284347</v>
+        <v>0.06348044331750616</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03567069811330415</v>
+        <v>0.03596803674675424</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2484962284.295105</v>
+        <v>2902580756.990491</v>
       </c>
       <c r="F22" t="n">
-        <v>0.130982437419046</v>
+        <v>0.1146629433526725</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05520425103342467</v>
+        <v>0.05585450916205881</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1332792837.602358</v>
+        <v>1042874173.648795</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1456669564583203</v>
+        <v>0.1168777018049265</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03620275097522971</v>
+        <v>0.03852747514449154</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4087861601.628548</v>
+        <v>3892228044.10339</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1284683690203319</v>
+        <v>0.1093299275832923</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02707146619243718</v>
+        <v>0.02580136530367377</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1163037887.118544</v>
+        <v>1464052789.060695</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08515728486797997</v>
+        <v>0.1223793999762071</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02712031602410235</v>
+        <v>0.02764865307147627</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1338498601.178765</v>
+        <v>1429867110.761891</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07523387876671685</v>
+        <v>0.1022255635456835</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02732187803567277</v>
+        <v>0.03878123195265555</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3667184934.717848</v>
+        <v>4180566963.174546</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1437755299945337</v>
+        <v>0.1325915539182278</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02652335573124874</v>
+        <v>0.01825769451052828</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2964043773.726576</v>
+        <v>2611076736.569686</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1116948910786864</v>
+        <v>0.1265746018981653</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04992013152572069</v>
+        <v>0.03934266424245139</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5257162950.084044</v>
+        <v>4042168944.458176</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09137227743222931</v>
+        <v>0.09700121385028838</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0361194909314947</v>
+        <v>0.02998306984442792</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1647208610.357177</v>
+        <v>1476692941.2731</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08876290055206845</v>
+        <v>0.1095129337547043</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03217100560269762</v>
+        <v>0.03873071607867779</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1269220668.501247</v>
+        <v>1099068294.617421</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06760700723765388</v>
+        <v>0.07215491603788705</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05184931888292588</v>
+        <v>0.04437421159760215</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1160860657.323773</v>
+        <v>1674746258.102475</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1191523129026775</v>
+        <v>0.1052713203510711</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02946768627631377</v>
+        <v>0.03189883635140049</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2927704193.925193</v>
+        <v>2445035083.307763</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1955602974657464</v>
+        <v>0.1427233790456344</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04452350242621926</v>
+        <v>0.04612443543680213</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1525080046.797693</v>
+        <v>1525890242.338367</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07656644461246091</v>
+        <v>0.09879425066232084</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02502842861284591</v>
+        <v>0.01938413290694638</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1286619066.678349</v>
+        <v>1127421302.371384</v>
       </c>
       <c r="F35" t="n">
-        <v>0.116071868327568</v>
+        <v>0.0839814170552389</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03567882231119184</v>
+        <v>0.02827020105391911</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2117816154.99797</v>
+        <v>2281758369.387137</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1253806225624748</v>
+        <v>0.154510950915601</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02399104600723455</v>
+        <v>0.0190281986396934</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2760474283.379799</v>
+        <v>2762126125.185791</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07665830358375746</v>
+        <v>0.07530246229468217</v>
       </c>
       <c r="G37" t="n">
-        <v>0.031897975071671</v>
+        <v>0.04230770612409486</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2091809502.632183</v>
+        <v>2189793460.406634</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1039970093604388</v>
+        <v>0.07593380681239455</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02546857056548225</v>
+        <v>0.03660638736251739</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1979555750.036839</v>
+        <v>1741373026.220934</v>
       </c>
       <c r="F39" t="n">
-        <v>0.14778740253371</v>
+        <v>0.164765860566991</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02505930264175579</v>
+        <v>0.02109851461926272</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1501039155.441574</v>
+        <v>1122798987.683045</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1179132787980776</v>
+        <v>0.132032420357171</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04025377780890973</v>
+        <v>0.03969066925963102</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2041765288.609769</v>
+        <v>2088419649.325828</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1377191913597224</v>
+        <v>0.1327296448768349</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04384688469389692</v>
+        <v>0.04623823295191898</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3395927580.006906</v>
+        <v>3958110746.938446</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08587648282008223</v>
+        <v>0.08242522698176943</v>
       </c>
       <c r="G42" t="n">
-        <v>0.045516425986088</v>
+        <v>0.03965173883105606</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2677449651.228381</v>
+        <v>2886695337.046825</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1921116693596078</v>
+        <v>0.2032534778807676</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02400584986025531</v>
+        <v>0.02157371976683684</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2341562715.86336</v>
+        <v>1998544146.221645</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06602821295788315</v>
+        <v>0.07266684990635605</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02707121744342741</v>
+        <v>0.02709602506057409</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2496060343.251494</v>
+        <v>2019316600.449701</v>
       </c>
       <c r="F45" t="n">
-        <v>0.130503445740634</v>
+        <v>0.1523285521060239</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05628530443378976</v>
+        <v>0.04578019904758394</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5378942653.569717</v>
+        <v>5337201479.637214</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1645475665633523</v>
+        <v>0.160357536516047</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05481769808079538</v>
+        <v>0.03758713382677561</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1746,13 +1746,13 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3239319275.635587</v>
+        <v>4263386225.057294</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1913704658903647</v>
+        <v>0.2021095265365205</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03773131396817331</v>
+        <v>0.04702255176990829</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3825075521.301759</v>
+        <v>2974767494.461142</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07821267806840053</v>
+        <v>0.06663563397015916</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03625263021016252</v>
+        <v>0.03903017056997487</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1370219562.760461</v>
+        <v>1322265245.380481</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1784807332182297</v>
+        <v>0.1940910180198613</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03715639433133205</v>
+        <v>0.03790249155596079</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3275339226.044074</v>
+        <v>3919759757.361229</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1633639165887727</v>
+        <v>0.1482162107187256</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04225557145595386</v>
+        <v>0.05268650603607825</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1050552097.985821</v>
+        <v>1542260303.699415</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1382594149991018</v>
+        <v>0.1783347383227527</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03834687446792337</v>
+        <v>0.04482003861109966</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5193428099.459259</v>
+        <v>3605195025.282809</v>
       </c>
       <c r="F52" t="n">
-        <v>0.101391361434086</v>
+        <v>0.1345377609702743</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04164959315855607</v>
+        <v>0.04857742913316331</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3164535896.378248</v>
+        <v>2485684278.344236</v>
       </c>
       <c r="F53" t="n">
-        <v>0.163474505577546</v>
+        <v>0.1804109497545215</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03440924420452372</v>
+        <v>0.02701533977467404</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4779006773.423353</v>
+        <v>4792788145.867516</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1345572675421157</v>
+        <v>0.1429914026089902</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03314469205606526</v>
+        <v>0.04096698965203845</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3169531550.519499</v>
+        <v>3452170090.818708</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2089303762876673</v>
+        <v>0.1894379751645325</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02045085774548487</v>
+        <v>0.02703578697097563</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1806399368.302186</v>
+        <v>1830703216.503697</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1583608890947536</v>
+        <v>0.09946702516488003</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03891388450283888</v>
+        <v>0.04899594909947521</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4389175476.159772</v>
+        <v>4574341288.481466</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1566641945520456</v>
+        <v>0.1812568625198295</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02094033490775512</v>
+        <v>0.02285454464889965</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1778157905.567799</v>
+        <v>1704950422.719591</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1591514694953123</v>
+        <v>0.1877035174493344</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03546892803119695</v>
+        <v>0.02729274806274823</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4784676710.70355</v>
+        <v>3416257549.963168</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09162667128875518</v>
+        <v>0.08489355404607134</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03508884141550175</v>
+        <v>0.041246140806272</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2581003519.175154</v>
+        <v>2434958061.698366</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1826856412323741</v>
+        <v>0.1442605355320435</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03026054119931045</v>
+        <v>0.0223191668121948</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2228418040.430122</v>
+        <v>2677207714.570652</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1310689329608585</v>
+        <v>0.1438475742419841</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02783522471611902</v>
+        <v>0.02267828533290246</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2032269272.785708</v>
+        <v>1929613878.237919</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1920269292954082</v>
+        <v>0.1325463756369959</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04601253036764719</v>
+        <v>0.03468992114345956</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4145731716.243157</v>
+        <v>4023839296.469406</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09854744851415738</v>
+        <v>0.09048886179833109</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04502425601349184</v>
+        <v>0.04380540347583637</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5124949503.419144</v>
+        <v>4224907844.252504</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1922466240034627</v>
+        <v>0.1547260411508449</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02831278664183829</v>
+        <v>0.03416211254718862</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4823386537.043639</v>
+        <v>4678371127.795845</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1675702217855215</v>
+        <v>0.1359438719993522</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02706689421178159</v>
+        <v>0.02392215060584496</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5190366650.11221</v>
+        <v>3601765020.478234</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1552839737390715</v>
+        <v>0.149174890933978</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04698402385720868</v>
+        <v>0.03554303814927389</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2156218120.418896</v>
+        <v>3355549931.328547</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07066972169975033</v>
+        <v>0.06750193104316175</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03604456085076545</v>
+        <v>0.04725119916508446</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4755554447.720136</v>
+        <v>5343600963.935505</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1174670414470866</v>
+        <v>0.10090124500714</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03439959953736438</v>
+        <v>0.04728786778950441</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2410396771.245184</v>
+        <v>1890544613.053836</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1682031942424561</v>
+        <v>0.1419073773216189</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04106947128784765</v>
+        <v>0.04633128380368384</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3284795151.466006</v>
+        <v>3142457800.879405</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08517640838228384</v>
+        <v>0.1024290370594742</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04358082606896754</v>
+        <v>0.03068332092707574</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3605390806.11889</v>
+        <v>3410460499.076504</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1402252455052126</v>
+        <v>0.1437493612214453</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02945984746446163</v>
+        <v>0.03102092336566631</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2100438047.014771</v>
+        <v>1613934760.203914</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08241967885044589</v>
+        <v>0.07356183058565638</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04347438517258562</v>
+        <v>0.03719308351508565</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3447138399.69674</v>
+        <v>2720359017.832459</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1042113423603342</v>
+        <v>0.07164157129572957</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03477044255087663</v>
+        <v>0.05232105350625047</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3316975289.448068</v>
+        <v>2876017261.344119</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1599821469218606</v>
+        <v>0.1312825251424848</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02498892178063813</v>
+        <v>0.03306439847655548</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1771175831.27864</v>
+        <v>2203631868.890174</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1660434959899765</v>
+        <v>0.142260587133468</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03384352575680647</v>
+        <v>0.0370275731846347</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3260081616.178941</v>
+        <v>4683814595.564869</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08475034492012563</v>
+        <v>0.1231017120535925</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02636504143147899</v>
+        <v>0.02631930390492792</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2232359977.639831</v>
+        <v>1442884855.490798</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1315832448939617</v>
+        <v>0.1708169888731941</v>
       </c>
       <c r="G77" t="n">
-        <v>0.021666567256504</v>
+        <v>0.02240162205338127</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4730122080.960751</v>
+        <v>3869784743.223461</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1144498102320993</v>
+        <v>0.08391485135507459</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04965738894452407</v>
+        <v>0.04248719114035297</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1286651251.797374</v>
+        <v>1724407524.20098</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1107475203061622</v>
+        <v>0.1646905201045416</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03134843445250496</v>
+        <v>0.03512291487779369</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5106002865.243987</v>
+        <v>4140164963.703828</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09564276566627714</v>
+        <v>0.08692087394152216</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02974150585280375</v>
+        <v>0.02874990064183033</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3875357902.612891</v>
+        <v>3328301809.344147</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1204512747778944</v>
+        <v>0.08437522614057913</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03077032795363437</v>
+        <v>0.02885742066348177</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3653403188.991606</v>
+        <v>4408611470.153438</v>
       </c>
       <c r="F82" t="n">
-        <v>0.178537795914353</v>
+        <v>0.1900410522289381</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0235284110483162</v>
+        <v>0.02276405102607913</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2015659115.505316</v>
+        <v>1839143651.606267</v>
       </c>
       <c r="F83" t="n">
-        <v>0.125913267018389</v>
+        <v>0.1015626364777986</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03347012892865626</v>
+        <v>0.03958987661443134</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2782,16 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1649907549.680529</v>
+        <v>1828528171.793627</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09873812699831722</v>
+        <v>0.08158223209792521</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04843017337006535</v>
+        <v>0.03346019683007913</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2405888985.758494</v>
+        <v>2440199163.303557</v>
       </c>
       <c r="F85" t="n">
-        <v>0.120714701734872</v>
+        <v>0.1246394069315903</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03709174679206595</v>
+        <v>0.05248721471719217</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2430410172.902856</v>
+        <v>2409452356.37753</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1478259989699623</v>
+        <v>0.1260253494330577</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02266334705417954</v>
+        <v>0.02407970671142432</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1450416137.917396</v>
+        <v>1273208651.888556</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1867450528693298</v>
+        <v>0.1373039160080209</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04433505016882092</v>
+        <v>0.02703085174062988</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2423500909.781075</v>
+        <v>3132833535.929451</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1448685098707011</v>
+        <v>0.1744341225914287</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02811889659127308</v>
+        <v>0.03074674735920571</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3202236166.405048</v>
+        <v>2656737299.513689</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1046197001517545</v>
+        <v>0.1357727240829448</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03577175652599173</v>
+        <v>0.03742531506938863</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1972626927.387023</v>
+        <v>1387595557.285664</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1110174464421377</v>
+        <v>0.09206274625737039</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03703216987864549</v>
+        <v>0.04460924764482403</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2073385381.85388</v>
+        <v>1435630790.992923</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1673687425356261</v>
+        <v>0.1853310744752418</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04968067542200795</v>
+        <v>0.04105469524083463</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1909139638.846728</v>
+        <v>2120621458.680708</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09080735831510778</v>
+        <v>0.09596104829200616</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03926784091706686</v>
+        <v>0.03849785999910053</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4995070129.343931</v>
+        <v>4043574879.948041</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09062755831560761</v>
+        <v>0.1163732191533902</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04257370736198923</v>
+        <v>0.05367043473861064</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2205109583.77877</v>
+        <v>2258597995.962625</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1681081767023293</v>
+        <v>0.125279137680226</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02945084223417266</v>
+        <v>0.03328310911461023</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2985642907.257489</v>
+        <v>3203552312.154757</v>
       </c>
       <c r="F95" t="n">
-        <v>0.132315277478966</v>
+        <v>0.130280596413024</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03898939212138164</v>
+        <v>0.05293250182973255</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2377716446.443486</v>
+        <v>1677790527.416542</v>
       </c>
       <c r="F96" t="n">
-        <v>0.131161521247806</v>
+        <v>0.1019580243300683</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03145488752700111</v>
+        <v>0.04668622276044328</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3397739035.306962</v>
+        <v>5074070764.359033</v>
       </c>
       <c r="F97" t="n">
-        <v>0.14279285516002</v>
+        <v>0.1599432658140527</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02151609523007769</v>
+        <v>0.02486443611965975</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3557783536.519958</v>
+        <v>3559864117.041997</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1195595983215674</v>
+        <v>0.09067412446803776</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02751990613104248</v>
+        <v>0.02459479277050242</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2648060856.556976</v>
+        <v>2600208150.841807</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1211132315847939</v>
+        <v>0.1034259673240076</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03488224659206011</v>
+        <v>0.03058854066749032</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3655301129.31811</v>
+        <v>3417971608.289203</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1800005988419508</v>
+        <v>0.1213742487121733</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02422406338404709</v>
+        <v>0.02380989973198949</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3098730665.784553</v>
+        <v>2246200293.166234</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1679134568352893</v>
+        <v>0.219855754892193</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04257255956681109</v>
+        <v>0.04134925578756946</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_390.xlsx
+++ b/output/fit_clients/fit_round_390.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1923067956.180754</v>
+        <v>1843529728.302729</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1115287816553604</v>
+        <v>0.1069116206017151</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03651608524347029</v>
+        <v>0.03046117462982159</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2236419453.286679</v>
+        <v>2107774173.043418</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1276948729058652</v>
+        <v>0.1746635859150021</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04117467440968811</v>
+        <v>0.03753814859113598</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3325149944.408879</v>
+        <v>3937885961.137146</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1621115937517932</v>
+        <v>0.1324195116620503</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03724230332531198</v>
+        <v>0.02494466597516888</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>198</v>
+      </c>
+      <c r="J4" t="n">
+        <v>390</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3624451670.486137</v>
+        <v>3482367983.292363</v>
       </c>
       <c r="F5" t="n">
-        <v>0.105508593369988</v>
+        <v>0.06992720314620009</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03555699336208423</v>
+        <v>0.04649538541889008</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>158</v>
+      </c>
+      <c r="J5" t="n">
+        <v>390</v>
+      </c>
+      <c r="K5" t="n">
+        <v>54.27742682314301</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1855082282.698723</v>
+        <v>1740945804.324574</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1395440997389488</v>
+        <v>0.1330267964468754</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04968876780068346</v>
+        <v>0.04070707673724295</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2128799823.474329</v>
+        <v>2488986708.387441</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07991881993691941</v>
+        <v>0.07918099699691851</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03870567676107391</v>
+        <v>0.04327792632827207</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3008529706.097003</v>
+        <v>3973415092.806483</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1615303171097322</v>
+        <v>0.1637139926200746</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02499998140220234</v>
+        <v>0.02219213163707132</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>105</v>
+      </c>
+      <c r="J8" t="n">
+        <v>390</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1854310624.827772</v>
+        <v>1674079486.41189</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1359621377437879</v>
+        <v>0.1765157874699018</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03184733565774295</v>
+        <v>0.03486032721293724</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5816801579.90515</v>
+        <v>4144030413.603755</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1626091602669252</v>
+        <v>0.2002913837367825</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03317776370233896</v>
+        <v>0.03580442892496442</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>317</v>
+      </c>
+      <c r="J10" t="n">
+        <v>390</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3607074480.093677</v>
+        <v>2952687151.588082</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1216660960185025</v>
+        <v>0.1622218936430894</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03597067586905741</v>
+        <v>0.03545072880699025</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>164</v>
+      </c>
+      <c r="J11" t="n">
+        <v>389</v>
+      </c>
+      <c r="K11" t="n">
+        <v>35.82040161153841</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2170861689.421717</v>
+        <v>3018644752.325902</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1818763784378787</v>
+        <v>0.1701244999504311</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04554848458018588</v>
+        <v>0.03253303526736666</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4004149311.071011</v>
+        <v>4408877635.341901</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09451941295147663</v>
+        <v>0.09600768820865521</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0285047789468272</v>
+        <v>0.03116478516210753</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>203</v>
+      </c>
+      <c r="J13" t="n">
+        <v>390</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2789612172.356331</v>
+        <v>3666553834.582167</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1337590588418076</v>
+        <v>0.1791242077666626</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03138281980937554</v>
+        <v>0.03278064249964403</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>81</v>
+      </c>
+      <c r="J14" t="n">
+        <v>387</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +960,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1158750824.86221</v>
+        <v>1603421897.073086</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1049507461867953</v>
+        <v>0.09905008810828039</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03272922206222134</v>
+        <v>0.04651533784353653</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +995,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1894806923.937859</v>
+        <v>1989647225.823284</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07098206434005508</v>
+        <v>0.1092533772643226</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03494873854573299</v>
+        <v>0.04046663678962984</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4210970718.782913</v>
+        <v>3715175392.774107</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1172789768145482</v>
+        <v>0.1518774856359015</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03520955283915558</v>
+        <v>0.04600125921416993</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>187</v>
+      </c>
+      <c r="J17" t="n">
+        <v>390</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1059,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3706125580.135493</v>
+        <v>2858964634.969597</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1758677544777629</v>
+        <v>0.1850116874527002</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02210897660861387</v>
+        <v>0.02990314326312264</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>94</v>
+      </c>
+      <c r="J18" t="n">
+        <v>383</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1100,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1112909474.843531</v>
+        <v>1204637802.569363</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1512986493657597</v>
+        <v>0.1695865701498435</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01780927255210054</v>
+        <v>0.01840481211827298</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1818129118.609396</v>
+        <v>1828081353.423992</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1130326707478578</v>
+        <v>0.1314707149648763</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02469177183669728</v>
+        <v>0.01946517096299382</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2311238321.504369</v>
+        <v>1971576637.541892</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06348044331750616</v>
+        <v>0.09148320081100529</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03596803674675424</v>
+        <v>0.03807993546834014</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1205,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2902580756.990491</v>
+        <v>3041436812.68605</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1146629433526725</v>
+        <v>0.1212927293167417</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05585450916205881</v>
+        <v>0.05204280269500194</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>107</v>
+      </c>
+      <c r="J22" t="n">
+        <v>379</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1042874173.648795</v>
+        <v>947365916.2095051</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1168777018049265</v>
+        <v>0.1260432836802912</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03852747514449154</v>
+        <v>0.04556805269196702</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1269,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3892228044.10339</v>
+        <v>3935654489.382095</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1093299275832923</v>
+        <v>0.1135311563190995</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02580136530367377</v>
+        <v>0.03736548709105914</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>120</v>
+      </c>
+      <c r="J24" t="n">
+        <v>390</v>
+      </c>
+      <c r="K24" t="n">
+        <v>57.90657917249038</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1464052789.060695</v>
+        <v>1069877843.595148</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1223793999762071</v>
+        <v>0.119888127982284</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02764865307147627</v>
+        <v>0.02950345911769985</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1429867110.761891</v>
+        <v>924282577.070807</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1022255635456835</v>
+        <v>0.1084036869547777</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03878123195265555</v>
+        <v>0.02759661103711934</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4180566963.174546</v>
+        <v>3819019300.619804</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1325915539182278</v>
+        <v>0.1144756269119166</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01825769451052828</v>
+        <v>0.02656983308218102</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>162</v>
+      </c>
+      <c r="J27" t="n">
+        <v>390</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1411,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2611076736.569686</v>
+        <v>2449638083.840901</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1265746018981653</v>
+        <v>0.09719246336965914</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03934266424245139</v>
+        <v>0.04809595799930499</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>93</v>
+      </c>
+      <c r="J28" t="n">
+        <v>389</v>
+      </c>
+      <c r="K28" t="n">
+        <v>28.22213285900091</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4042168944.458176</v>
+        <v>5907849930.810874</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09700121385028838</v>
+        <v>0.146959206143055</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02998306984442792</v>
+        <v>0.04424514357146238</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>334</v>
+      </c>
+      <c r="J29" t="n">
+        <v>389</v>
+      </c>
+      <c r="K29" t="n">
+        <v>49.84172173260911</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1476692941.2731</v>
+        <v>2342195517.575712</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1095129337547043</v>
+        <v>0.08764754380625173</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03873071607867779</v>
+        <v>0.02543950631104679</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1099068294.617421</v>
+        <v>1151542815.369563</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07215491603788705</v>
+        <v>0.07798954568748706</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04437421159760215</v>
+        <v>0.03225431463292879</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1674746258.102475</v>
+        <v>1766532784.759562</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1052713203510711</v>
+        <v>0.09759918654733443</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03189883635140049</v>
+        <v>0.02731788761924243</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1596,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2445035083.307763</v>
+        <v>2943524083.650269</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1427233790456344</v>
+        <v>0.1733335114131827</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04612443543680213</v>
+        <v>0.04256654809988063</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1525890242.338367</v>
+        <v>1483257283.239934</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09879425066232084</v>
+        <v>0.08208415029029055</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01938413290694638</v>
+        <v>0.02544889765112364</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1127421302.371384</v>
+        <v>1020789187.77841</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0839814170552389</v>
+        <v>0.09034683860000256</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02827020105391911</v>
+        <v>0.02720695742679065</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2281758369.387137</v>
+        <v>3027050564.264297</v>
       </c>
       <c r="F36" t="n">
-        <v>0.154510950915601</v>
+        <v>0.1452467434709372</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0190281986396934</v>
+        <v>0.02843726171741202</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2762126125.185791</v>
+        <v>2456922181.993107</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07530246229468217</v>
+        <v>0.1103907047908952</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04230770612409486</v>
+        <v>0.03171906335495887</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2189793460.406634</v>
+        <v>1914083435.834357</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07593380681239455</v>
+        <v>0.09314449517803816</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03660638736251739</v>
+        <v>0.03407717609366545</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1741373026.220934</v>
+        <v>1681420395.845464</v>
       </c>
       <c r="F39" t="n">
-        <v>0.164765860566991</v>
+        <v>0.1308287137873052</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02109851461926272</v>
+        <v>0.0320587016184422</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1122798987.683045</v>
+        <v>1519951940.805088</v>
       </c>
       <c r="F40" t="n">
-        <v>0.132032420357171</v>
+        <v>0.1456713704098031</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03969066925963102</v>
+        <v>0.03681244959375313</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2088419649.325828</v>
+        <v>1855380538.487881</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1327296448768349</v>
+        <v>0.1146539866788431</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04623823295191898</v>
+        <v>0.03665855321378077</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1911,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3958110746.938446</v>
+        <v>3264249729.246704</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08242522698176943</v>
+        <v>0.09350562728685323</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03965173883105606</v>
+        <v>0.03121194028440851</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>170</v>
+      </c>
+      <c r="J42" t="n">
+        <v>387</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2886695337.046825</v>
+        <v>2842744450.881893</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2032534778807676</v>
+        <v>0.1801213033387077</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02157371976683684</v>
+        <v>0.01668589328651823</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1998544146.221645</v>
+        <v>1719255502.952068</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07266684990635605</v>
+        <v>0.06715113546494962</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02709602506057409</v>
+        <v>0.03289780106709616</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2019316600.449701</v>
+        <v>1718639188.695161</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1523285521060239</v>
+        <v>0.1749309046868777</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04578019904758394</v>
+        <v>0.04589765002917332</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2045,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5337201479.637214</v>
+        <v>5409840601.482218</v>
       </c>
       <c r="F46" t="n">
-        <v>0.160357536516047</v>
+        <v>0.1754049768275625</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03758713382677561</v>
+        <v>0.04553500356916028</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>234</v>
+      </c>
+      <c r="J46" t="n">
+        <v>390</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,16 +2086,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4263386225.057294</v>
+        <v>3891435887.343013</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2021095265365205</v>
+        <v>0.151435212564546</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04702255176990829</v>
+        <v>0.03949001229299808</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>175</v>
+      </c>
+      <c r="J47" t="n">
+        <v>389</v>
+      </c>
+      <c r="K47" t="n">
+        <v>48.25272774722979</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2123,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2974767494.461142</v>
+        <v>3269313778.419868</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06663563397015916</v>
+        <v>0.07361265816229867</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03903017056997487</v>
+        <v>0.0381799101604991</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>202</v>
+      </c>
+      <c r="J48" t="n">
+        <v>388</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1322265245.380481</v>
+        <v>1568179244.052556</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1940910180198613</v>
+        <v>0.1860137692030989</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03790249155596079</v>
+        <v>0.0381313047938026</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3919759757.361229</v>
+        <v>3137184076.771007</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1482162107187256</v>
+        <v>0.1286790617777394</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05268650603607825</v>
+        <v>0.04172919875138573</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>134</v>
+      </c>
+      <c r="J50" t="n">
+        <v>387</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1542260303.699415</v>
+        <v>1047373678.971575</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1783347383227527</v>
+        <v>0.1356279090462779</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04482003861109966</v>
+        <v>0.04897485966013294</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3605195025.282809</v>
+        <v>4202683805.904613</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1345377609702743</v>
+        <v>0.107396022595288</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04857742913316331</v>
+        <v>0.06021150275087966</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>228</v>
+      </c>
+      <c r="J52" t="n">
+        <v>389</v>
+      </c>
+      <c r="K52" t="n">
+        <v>48.98056098917921</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2300,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2485684278.344236</v>
+        <v>3072237964.803948</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1804109497545215</v>
+        <v>0.152234764620308</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02701533977467404</v>
+        <v>0.03399816790951066</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>54</v>
+      </c>
+      <c r="J53" t="n">
+        <v>387</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2329,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4792788145.867516</v>
+        <v>4799313118.800198</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1429914026089902</v>
+        <v>0.1320550294263864</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04096698965203845</v>
+        <v>0.03920325936661308</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>208</v>
+      </c>
+      <c r="J54" t="n">
+        <v>389</v>
+      </c>
+      <c r="K54" t="n">
+        <v>51.39149267649558</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3452170090.818708</v>
+        <v>3535846171.284517</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1894379751645325</v>
+        <v>0.1557269558272645</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02703578697097563</v>
+        <v>0.02112180235941576</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>190</v>
+      </c>
+      <c r="J55" t="n">
+        <v>389</v>
+      </c>
+      <c r="K55" t="n">
+        <v>44.9902780735241</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1830703216.503697</v>
+        <v>1248617859.45989</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09946702516488003</v>
+        <v>0.1400849172933323</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04899594909947521</v>
+        <v>0.04796401094278389</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4574341288.481466</v>
+        <v>3364626386.670321</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1812568625198295</v>
+        <v>0.1348695345833536</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02285454464889965</v>
+        <v>0.02161899545524382</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>166</v>
+      </c>
+      <c r="J57" t="n">
+        <v>389</v>
+      </c>
+      <c r="K57" t="n">
+        <v>41.15338297561276</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1704950422.719591</v>
+        <v>1436163424.813771</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1877035174493344</v>
+        <v>0.1999568910905863</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02729274806274823</v>
+        <v>0.03610005400066071</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3416257549.963168</v>
+        <v>5217237436.471542</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08489355404607134</v>
+        <v>0.1013463887688306</v>
       </c>
       <c r="G59" t="n">
-        <v>0.041246140806272</v>
+        <v>0.04374318083353265</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>189</v>
+      </c>
+      <c r="J59" t="n">
+        <v>390</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2434958061.698366</v>
+        <v>2489033276.987146</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1442605355320435</v>
+        <v>0.1966409633810353</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0223191668121948</v>
+        <v>0.02122825733396682</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>71</v>
+      </c>
+      <c r="J60" t="n">
+        <v>379</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2677207714.570652</v>
+        <v>2295495723.087932</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1438475742419841</v>
+        <v>0.1225144130469254</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02267828533290246</v>
+        <v>0.0307173850032527</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1929613878.237919</v>
+        <v>1599537133.296875</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1325463756369959</v>
+        <v>0.1245760966037429</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03468992114345956</v>
+        <v>0.0413845717804479</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4023839296.469406</v>
+        <v>5313769397.014423</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09048886179833109</v>
+        <v>0.08143344138376993</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04380540347583637</v>
+        <v>0.04576291115845862</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>193</v>
+      </c>
+      <c r="J63" t="n">
+        <v>390</v>
+      </c>
+      <c r="K63" t="n">
+        <v>52.71922240623201</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4224907844.252504</v>
+        <v>5187535560.095002</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1547260411508449</v>
+        <v>0.1212045735498795</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03416211254718862</v>
+        <v>0.02388858459816662</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>193</v>
+      </c>
+      <c r="J64" t="n">
+        <v>390</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,17 +2728,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4678371127.795845</v>
+        <v>4181367020.198556</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1359438719993522</v>
+        <v>0.1589851583064332</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02392215060584496</v>
+        <v>0.03097798205391541</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>290</v>
+      </c>
+      <c r="J65" t="n">
+        <v>390</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2763,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3601765020.478234</v>
+        <v>5472873716.003163</v>
       </c>
       <c r="F66" t="n">
-        <v>0.149174890933978</v>
+        <v>0.1177073049926929</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03554303814927389</v>
+        <v>0.04380793215188503</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>193</v>
+      </c>
+      <c r="J66" t="n">
+        <v>389</v>
+      </c>
+      <c r="K66" t="n">
+        <v>47.54218687561188</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2794,31 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3355549931.328547</v>
+        <v>2354488863.366474</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06750193104316175</v>
+        <v>0.08484574576743352</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04725119916508446</v>
+        <v>0.04938060387956016</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="n">
+        <v>33.83106747335354</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5343600963.935505</v>
+        <v>5706317608.904072</v>
       </c>
       <c r="F68" t="n">
-        <v>0.10090124500714</v>
+        <v>0.1500967178490912</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04728786778950441</v>
+        <v>0.04481762012050462</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>212</v>
+      </c>
+      <c r="J68" t="n">
+        <v>389</v>
+      </c>
+      <c r="K68" t="n">
+        <v>50.17156829604392</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1890544613.053836</v>
+        <v>2320198233.161007</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1419073773216189</v>
+        <v>0.1247155117113769</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04633128380368384</v>
+        <v>0.0428275631807528</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2903,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3142457800.879405</v>
+        <v>3034878408.965036</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1024290370594742</v>
+        <v>0.07620252458265683</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03068332092707574</v>
+        <v>0.04570726385558532</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>54</v>
+      </c>
+      <c r="J70" t="n">
+        <v>389</v>
+      </c>
+      <c r="K70" t="n">
+        <v>40.41696768640687</v>
       </c>
     </row>
     <row r="71">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3410460499.076504</v>
+        <v>5120516654.234891</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1437493612214453</v>
+        <v>0.1616894383506881</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03102092336566631</v>
+        <v>0.02957767272228186</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>277</v>
+      </c>
+      <c r="J71" t="n">
+        <v>390</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1613934760.203914</v>
+        <v>1450923327.920265</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07356183058565638</v>
+        <v>0.09907144414281402</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03719308351508565</v>
+        <v>0.04159705708795829</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2720359017.832459</v>
+        <v>3041759350.196098</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07164157129572957</v>
+        <v>0.06933778028961715</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05232105350625047</v>
+        <v>0.03717817222396255</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2876017261.344119</v>
+        <v>3467402744.17356</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1312825251424848</v>
+        <v>0.1546190208643537</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03306439847655548</v>
+        <v>0.03283542531204002</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>111</v>
+      </c>
+      <c r="J74" t="n">
+        <v>383</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2203631868.890174</v>
+        <v>2260204660.367714</v>
       </c>
       <c r="F75" t="n">
-        <v>0.142260587133468</v>
+        <v>0.166559310548715</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0370275731846347</v>
+        <v>0.037309895435895</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4683814595.564869</v>
+        <v>5372324559.828334</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1231017120535925</v>
+        <v>0.08072842147296826</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02631930390492792</v>
+        <v>0.02202153983002439</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>184</v>
+      </c>
+      <c r="J76" t="n">
+        <v>389</v>
+      </c>
+      <c r="K76" t="n">
+        <v>49.4987233496522</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1442884855.490798</v>
+        <v>1835553746.42807</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1708169888731941</v>
+        <v>0.1602805718210581</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02240162205338127</v>
+        <v>0.02430032492084904</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3193,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3869784743.223461</v>
+        <v>3717241661.990317</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08391485135507459</v>
+        <v>0.1062368792308063</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04248719114035297</v>
+        <v>0.05308315844376962</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>194</v>
+      </c>
+      <c r="J78" t="n">
+        <v>390</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1724407524.20098</v>
+        <v>1768770985.02738</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1646905201045416</v>
+        <v>0.152765872544377</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03512291487779369</v>
+        <v>0.02969584261172842</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4140164963.703828</v>
+        <v>4696502898.067761</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08692087394152216</v>
+        <v>0.09972986189249565</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02874990064183033</v>
+        <v>0.02619143653465163</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>190</v>
+      </c>
+      <c r="J80" t="n">
+        <v>390</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3328301809.344147</v>
+        <v>4269965656.767856</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08437522614057913</v>
+        <v>0.08750570580180135</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02885742066348177</v>
+        <v>0.03166687176504143</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>181</v>
+      </c>
+      <c r="J81" t="n">
+        <v>390</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4408611470.153438</v>
+        <v>3823265807.773645</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1900410522289381</v>
+        <v>0.2118254371557511</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02276405102607913</v>
+        <v>0.0215560403120203</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>268</v>
+      </c>
+      <c r="J82" t="n">
+        <v>389</v>
+      </c>
+      <c r="K82" t="n">
+        <v>50.63745925271878</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1839143651.606267</v>
+        <v>1617333200.588377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1015626364777986</v>
+        <v>0.1105204902596472</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03958987661443134</v>
+        <v>0.03254200215033957</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1828528171.793627</v>
+        <v>2279285974.612697</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08158223209792521</v>
+        <v>0.0786116940466232</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03346019683007913</v>
+        <v>0.03670863406286765</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2440199163.303557</v>
+        <v>2881238469.931821</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1246394069315903</v>
+        <v>0.1833858881202142</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05248721471719217</v>
+        <v>0.05167593559591886</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2409452356.37753</v>
+        <v>2725039700.138969</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1260253494330577</v>
+        <v>0.1541737153096706</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02407970671142432</v>
+        <v>0.01956588133268958</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1273208651.888556</v>
+        <v>1149905165.658902</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1373039160080209</v>
+        <v>0.1274885292442844</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02703085174062988</v>
+        <v>0.04041045399776511</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3132833535.929451</v>
+        <v>3011995528.384018</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1744341225914287</v>
+        <v>0.1229605461558662</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03074674735920571</v>
+        <v>0.03076758041228494</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>49</v>
+      </c>
+      <c r="J88" t="n">
+        <v>384</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2656737299.513689</v>
+        <v>3130408702.318031</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1357727240829448</v>
+        <v>0.154097650719757</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03742531506938863</v>
+        <v>0.02700328161914615</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1387595557.285664</v>
+        <v>1346986773.481737</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09206274625737039</v>
+        <v>0.1162257144457792</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04460924764482403</v>
+        <v>0.05623427009209172</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1435630790.992923</v>
+        <v>1756849232.309575</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1853310744752418</v>
+        <v>0.1651973794288981</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04105469524083463</v>
+        <v>0.05775140959828842</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2120621458.680708</v>
+        <v>1827838089.903526</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09596104829200616</v>
+        <v>0.09724223185817828</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03849785999910053</v>
+        <v>0.04337302903663977</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4043574879.948041</v>
+        <v>4320110371.633515</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1163732191533902</v>
+        <v>0.1169063599250819</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05367043473861064</v>
+        <v>0.05141986690230892</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>185</v>
+      </c>
+      <c r="J93" t="n">
+        <v>390</v>
+      </c>
+      <c r="K93" t="n">
+        <v>52.56974683617739</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2258597995.962625</v>
+        <v>1536407140.493043</v>
       </c>
       <c r="F94" t="n">
-        <v>0.125279137680226</v>
+        <v>0.1038169974893002</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03328310911461023</v>
+        <v>0.03055535789800363</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3203552312.154757</v>
+        <v>2242179534.965442</v>
       </c>
       <c r="F95" t="n">
-        <v>0.130280596413024</v>
+        <v>0.09782675855135732</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05293250182973255</v>
+        <v>0.04077109458550168</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1677790527.416542</v>
+        <v>1617122498.951956</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1019580243300683</v>
+        <v>0.1176128849287987</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04668622276044328</v>
+        <v>0.04010177041480866</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5074070764.359033</v>
+        <v>3981521489.531554</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1599432658140527</v>
+        <v>0.1413573571102069</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02486443611965975</v>
+        <v>0.02475103286192092</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>202</v>
+      </c>
+      <c r="J97" t="n">
+        <v>390</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3891,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3559864117.041997</v>
+        <v>3610640195.469557</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09067412446803776</v>
+        <v>0.08210449027689101</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02459479277050242</v>
+        <v>0.0244929017957433</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>99</v>
+      </c>
+      <c r="J98" t="n">
+        <v>387</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3932,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2600208150.841807</v>
+        <v>3413636539.8622</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1034259673240076</v>
+        <v>0.09601506889393484</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03058854066749032</v>
+        <v>0.02871305629106622</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3961,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3417971608.289203</v>
+        <v>2897678272.896687</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1213742487121733</v>
+        <v>0.1748457399110434</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02380989973198949</v>
+        <v>0.02554420086328438</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>180</v>
+      </c>
+      <c r="J100" t="n">
+        <v>389</v>
+      </c>
+      <c r="K100" t="n">
+        <v>29.2450572469161</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2246200293.166234</v>
+        <v>3497500006.460129</v>
       </c>
       <c r="F101" t="n">
-        <v>0.219855754892193</v>
+        <v>0.1497219881415692</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04134925578756946</v>
+        <v>0.04722460350710389</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>35</v>
+      </c>
+      <c r="J101" t="n">
+        <v>390</v>
+      </c>
+      <c r="K101" t="n">
+        <v>74.02694141353176</v>
       </c>
     </row>
   </sheetData>
